--- a/natmiOut/OldD4/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.8521078565935</v>
+        <v>26.167311</v>
       </c>
       <c r="H2">
-        <v>18.8521078565935</v>
+        <v>78.50193300000001</v>
       </c>
       <c r="I2">
-        <v>0.221195634766324</v>
+        <v>0.2570455291913796</v>
       </c>
       <c r="J2">
-        <v>0.221195634766324</v>
+        <v>0.2645760588013328</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.290228054182965</v>
+        <v>0.3015963333333334</v>
       </c>
       <c r="N2">
-        <v>0.290228054182965</v>
+        <v>0.9047890000000001</v>
       </c>
       <c r="O2">
-        <v>0.5943164590385835</v>
+        <v>0.4737402899861982</v>
       </c>
       <c r="P2">
-        <v>0.5943164590385835</v>
+        <v>0.5687660179545673</v>
       </c>
       <c r="Q2">
-        <v>5.471410580466518</v>
+        <v>7.891965050793001</v>
       </c>
       <c r="R2">
-        <v>5.471410580466518</v>
+        <v>71.02768545713701</v>
       </c>
       <c r="S2">
-        <v>0.1314602064091135</v>
+        <v>0.1217728235387799</v>
       </c>
       <c r="T2">
-        <v>0.1314602064091135</v>
+        <v>0.1504818714105475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.8521078565935</v>
+        <v>26.167311</v>
       </c>
       <c r="H3">
-        <v>18.8521078565935</v>
+        <v>78.50193300000001</v>
       </c>
       <c r="I3">
-        <v>0.221195634766324</v>
+        <v>0.2570455291913796</v>
       </c>
       <c r="J3">
-        <v>0.221195634766324</v>
+        <v>0.2645760588013328</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.198111196344376</v>
+        <v>0.01594066666666667</v>
       </c>
       <c r="N3">
-        <v>0.198111196344376</v>
+        <v>0.047822</v>
       </c>
       <c r="O3">
-        <v>0.4056835409614166</v>
+        <v>0.02503921704145383</v>
       </c>
       <c r="P3">
-        <v>0.4056835409614166</v>
+        <v>0.03006173650500096</v>
       </c>
       <c r="Q3">
-        <v>3.734813641082948</v>
+        <v>0.4171243822140001</v>
       </c>
       <c r="R3">
-        <v>3.734813641082948</v>
+        <v>3.754119439926001</v>
       </c>
       <c r="S3">
-        <v>0.08973542835721054</v>
+        <v>0.00643621879495831</v>
       </c>
       <c r="T3">
-        <v>0.08973542835721054</v>
+        <v>0.007953615765217307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.6763033688946</v>
+        <v>26.167311</v>
       </c>
       <c r="H4">
-        <v>56.6763033688946</v>
+        <v>78.50193300000001</v>
       </c>
       <c r="I4">
-        <v>0.6649946518053018</v>
+        <v>0.2570455291913796</v>
       </c>
       <c r="J4">
-        <v>0.6649946518053018</v>
+        <v>0.2645760588013328</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.290228054182965</v>
+        <v>0.319091</v>
       </c>
       <c r="N4">
-        <v>0.290228054182965</v>
+        <v>0.638182</v>
       </c>
       <c r="O4">
-        <v>0.5943164590385835</v>
+        <v>0.5012204929723481</v>
       </c>
       <c r="P4">
-        <v>0.5943164590385835</v>
+        <v>0.4011722455404317</v>
       </c>
       <c r="Q4">
-        <v>16.4490532450377</v>
+        <v>8.349753434301</v>
       </c>
       <c r="R4">
-        <v>16.4490532450377</v>
+        <v>50.09852060580601</v>
       </c>
       <c r="S4">
-        <v>0.3952172667405228</v>
+        <v>0.1288364868576413</v>
       </c>
       <c r="T4">
-        <v>0.3952172667405228</v>
+        <v>0.106140571625568</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.6763033688946</v>
+        <v>65.67978099999999</v>
       </c>
       <c r="H5">
-        <v>56.6763033688946</v>
+        <v>197.039343</v>
       </c>
       <c r="I5">
-        <v>0.6649946518053018</v>
+        <v>0.6451826121651902</v>
       </c>
       <c r="J5">
-        <v>0.6649946518053018</v>
+        <v>0.6640841926751532</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.198111196344376</v>
+        <v>0.3015963333333334</v>
       </c>
       <c r="N5">
-        <v>0.198111196344376</v>
+        <v>0.9047890000000001</v>
       </c>
       <c r="O5">
-        <v>0.4056835409614166</v>
+        <v>0.4737402899861982</v>
       </c>
       <c r="P5">
-        <v>0.4056835409614166</v>
+        <v>0.5687660179545673</v>
       </c>
       <c r="Q5">
-        <v>11.2282102647885</v>
+        <v>19.80878112373633</v>
       </c>
       <c r="R5">
-        <v>11.2282102647885</v>
+        <v>178.279030113627</v>
       </c>
       <c r="S5">
-        <v>0.2697773850647791</v>
+        <v>0.30564899778119</v>
       </c>
       <c r="T5">
-        <v>0.2697773850647791</v>
+        <v>0.3777085218544205</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.56575258435141</v>
+        <v>65.67978099999999</v>
       </c>
       <c r="H6">
-        <v>0.56575258435141</v>
+        <v>197.039343</v>
       </c>
       <c r="I6">
-        <v>0.006638090709444469</v>
+        <v>0.6451826121651902</v>
       </c>
       <c r="J6">
-        <v>0.006638090709444469</v>
+        <v>0.6640841926751532</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.290228054182965</v>
+        <v>0.01594066666666667</v>
       </c>
       <c r="N6">
-        <v>0.290228054182965</v>
+        <v>0.047822</v>
       </c>
       <c r="O6">
-        <v>0.5943164590385835</v>
+        <v>0.02503921704145383</v>
       </c>
       <c r="P6">
-        <v>0.5943164590385835</v>
+        <v>0.03006173650500096</v>
       </c>
       <c r="Q6">
-        <v>0.1641972717052935</v>
+        <v>1.046979495660667</v>
       </c>
       <c r="R6">
-        <v>0.1641972717052935</v>
+        <v>9.422815460946</v>
       </c>
       <c r="S6">
-        <v>0.003945126565213956</v>
+        <v>0.01615486745737633</v>
       </c>
       <c r="T6">
-        <v>0.003945126565213956</v>
+        <v>0.01996352401733675</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.56575258435141</v>
+        <v>65.67978099999999</v>
       </c>
       <c r="H7">
-        <v>0.56575258435141</v>
+        <v>197.039343</v>
       </c>
       <c r="I7">
-        <v>0.006638090709444469</v>
+        <v>0.6451826121651902</v>
       </c>
       <c r="J7">
-        <v>0.006638090709444469</v>
+        <v>0.6640841926751532</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.198111196344376</v>
+        <v>0.319091</v>
       </c>
       <c r="N7">
-        <v>0.198111196344376</v>
+        <v>0.638182</v>
       </c>
       <c r="O7">
-        <v>0.4056835409614166</v>
+        <v>0.5012204929723481</v>
       </c>
       <c r="P7">
-        <v>0.4056835409614166</v>
+        <v>0.4011722455404317</v>
       </c>
       <c r="Q7">
-        <v>0.1120819213207803</v>
+        <v>20.957826999071</v>
       </c>
       <c r="R7">
-        <v>0.1120819213207803</v>
+        <v>125.746961994426</v>
       </c>
       <c r="S7">
-        <v>0.002692964144230514</v>
+        <v>0.3233787469266239</v>
       </c>
       <c r="T7">
-        <v>0.002692964144230514</v>
+        <v>0.2664121468033959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.446763136511996</v>
+        <v>0.6031273333333333</v>
       </c>
       <c r="H8">
-        <v>0.446763136511996</v>
+        <v>1.809382</v>
       </c>
       <c r="I8">
-        <v>0.005241963197043876</v>
+        <v>0.005924612756979587</v>
       </c>
       <c r="J8">
-        <v>0.005241963197043876</v>
+        <v>0.006098183065454873</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.290228054182965</v>
+        <v>0.3015963333333334</v>
       </c>
       <c r="N8">
-        <v>0.290228054182965</v>
+        <v>0.9047890000000001</v>
       </c>
       <c r="O8">
-        <v>0.5943164590385835</v>
+        <v>0.4737402899861982</v>
       </c>
       <c r="P8">
-        <v>0.5943164590385835</v>
+        <v>0.5687660179545673</v>
       </c>
       <c r="Q8">
-        <v>0.129663195790555</v>
+        <v>0.1819009922664445</v>
       </c>
       <c r="R8">
-        <v>0.129663195790555</v>
+        <v>1.637108930398</v>
       </c>
       <c r="S8">
-        <v>0.003115385005677689</v>
+        <v>0.002806727765547439</v>
       </c>
       <c r="T8">
-        <v>0.003115385005677689</v>
+        <v>0.003468439298896744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.446763136511996</v>
+        <v>0.6031273333333333</v>
       </c>
       <c r="H9">
-        <v>0.446763136511996</v>
+        <v>1.809382</v>
       </c>
       <c r="I9">
-        <v>0.005241963197043876</v>
+        <v>0.005924612756979587</v>
       </c>
       <c r="J9">
-        <v>0.005241963197043876</v>
+        <v>0.006098183065454873</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.198111196344376</v>
+        <v>0.01594066666666667</v>
       </c>
       <c r="N9">
-        <v>0.198111196344376</v>
+        <v>0.047822</v>
       </c>
       <c r="O9">
-        <v>0.4056835409614166</v>
+        <v>0.02503921704145383</v>
       </c>
       <c r="P9">
-        <v>0.4056835409614166</v>
+        <v>0.03006173650500096</v>
       </c>
       <c r="Q9">
-        <v>0.0885087794569573</v>
+        <v>0.009614251778222224</v>
       </c>
       <c r="R9">
-        <v>0.0885087794569573</v>
+        <v>0.08652826600400002</v>
       </c>
       <c r="S9">
-        <v>0.002126578191366187</v>
+        <v>0.000148347664708578</v>
       </c>
       <c r="T9">
-        <v>0.002126578191366187</v>
+        <v>0.0001833219724729634</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.68728235583154</v>
+        <v>0.6031273333333333</v>
       </c>
       <c r="H10">
-        <v>8.68728235583154</v>
+        <v>1.809382</v>
       </c>
       <c r="I10">
-        <v>0.1019296595218858</v>
+        <v>0.005924612756979587</v>
       </c>
       <c r="J10">
-        <v>0.1019296595218858</v>
+        <v>0.006098183065454873</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.290228054182965</v>
+        <v>0.319091</v>
       </c>
       <c r="N10">
-        <v>0.290228054182965</v>
+        <v>0.638182</v>
       </c>
       <c r="O10">
-        <v>0.5943164590385835</v>
+        <v>0.5012204929723481</v>
       </c>
       <c r="P10">
-        <v>0.5943164590385835</v>
+        <v>0.4011722455404317</v>
       </c>
       <c r="Q10">
-        <v>2.521293054270992</v>
+        <v>0.1924525039206667</v>
       </c>
       <c r="R10">
-        <v>2.521293054270992</v>
+        <v>1.154715023524</v>
       </c>
       <c r="S10">
-        <v>0.06057847431805562</v>
+        <v>0.00296953732672357</v>
       </c>
       <c r="T10">
-        <v>0.06057847431805562</v>
+        <v>0.002446421794085165</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6575653333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.972696</v>
+      </c>
+      <c r="I11">
+        <v>0.006459365621655683</v>
+      </c>
+      <c r="J11">
+        <v>0.006648602307578259</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3015963333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.9047890000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.4737402899861982</v>
+      </c>
+      <c r="P11">
+        <v>0.5687660179545673</v>
+      </c>
+      <c r="Q11">
+        <v>0.1983192934604445</v>
+      </c>
+      <c r="R11">
+        <v>1.784873641144</v>
+      </c>
+      <c r="S11">
+        <v>0.003060061742730042</v>
+      </c>
+      <c r="T11">
+        <v>0.003781499059444833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6575653333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.972696</v>
+      </c>
+      <c r="I12">
+        <v>0.006459365621655683</v>
+      </c>
+      <c r="J12">
+        <v>0.006648602307578259</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01594066666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.047822</v>
+      </c>
+      <c r="O12">
+        <v>0.02503921704145383</v>
+      </c>
+      <c r="P12">
+        <v>0.03006173650500096</v>
+      </c>
+      <c r="Q12">
+        <v>0.01048202979022222</v>
+      </c>
+      <c r="R12">
+        <v>0.09433826811200001</v>
+      </c>
+      <c r="S12">
+        <v>0.000161737457750742</v>
+      </c>
+      <c r="T12">
+        <v>0.000199868530696959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>8.68728235583154</v>
-      </c>
-      <c r="H11">
-        <v>8.68728235583154</v>
-      </c>
-      <c r="I11">
-        <v>0.1019296595218858</v>
-      </c>
-      <c r="J11">
-        <v>0.1019296595218858</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.198111196344376</v>
-      </c>
-      <c r="N11">
-        <v>0.198111196344376</v>
-      </c>
-      <c r="O11">
-        <v>0.4056835409614166</v>
-      </c>
-      <c r="P11">
-        <v>0.4056835409614166</v>
-      </c>
-      <c r="Q11">
-        <v>1.721047900495175</v>
-      </c>
-      <c r="R11">
-        <v>1.721047900495175</v>
-      </c>
-      <c r="S11">
-        <v>0.04135118520383021</v>
-      </c>
-      <c r="T11">
-        <v>0.04135118520383021</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6575653333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.972696</v>
+      </c>
+      <c r="I13">
+        <v>0.006459365621655683</v>
+      </c>
+      <c r="J13">
+        <v>0.006648602307578259</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.319091</v>
+      </c>
+      <c r="N13">
+        <v>0.638182</v>
+      </c>
+      <c r="O13">
+        <v>0.5012204929723481</v>
+      </c>
+      <c r="P13">
+        <v>0.4011722455404317</v>
+      </c>
+      <c r="Q13">
+        <v>0.2098231797786667</v>
+      </c>
+      <c r="R13">
+        <v>1.258939078672</v>
+      </c>
+      <c r="S13">
+        <v>0.003237566421174899</v>
+      </c>
+      <c r="T13">
+        <v>0.002667234717436466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.692511499999998</v>
+      </c>
+      <c r="H14">
+        <v>17.385023</v>
+      </c>
+      <c r="I14">
+        <v>0.08538788026479496</v>
+      </c>
+      <c r="J14">
+        <v>0.05859296315048091</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3015963333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.9047890000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.4737402899861982</v>
+      </c>
+      <c r="P14">
+        <v>0.5687660179545673</v>
+      </c>
+      <c r="Q14">
+        <v>2.621629595857833</v>
+      </c>
+      <c r="R14">
+        <v>15.729777575147</v>
+      </c>
+      <c r="S14">
+        <v>0.04045167915795073</v>
+      </c>
+      <c r="T14">
+        <v>0.03332568633125772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.692511499999998</v>
+      </c>
+      <c r="H15">
+        <v>17.385023</v>
+      </c>
+      <c r="I15">
+        <v>0.08538788026479496</v>
+      </c>
+      <c r="J15">
+        <v>0.05859296315048091</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01594066666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.047822</v>
+      </c>
+      <c r="O15">
+        <v>0.02503921704145383</v>
+      </c>
+      <c r="P15">
+        <v>0.03006173650500096</v>
+      </c>
+      <c r="Q15">
+        <v>0.1385644283176667</v>
+      </c>
+      <c r="R15">
+        <v>0.8313865699059999</v>
+      </c>
+      <c r="S15">
+        <v>0.002138045666659873</v>
+      </c>
+      <c r="T15">
+        <v>0.001761406219276988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.692511499999998</v>
+      </c>
+      <c r="H16">
+        <v>17.385023</v>
+      </c>
+      <c r="I16">
+        <v>0.08538788026479496</v>
+      </c>
+      <c r="J16">
+        <v>0.05859296315048091</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.319091</v>
+      </c>
+      <c r="N16">
+        <v>0.638182</v>
+      </c>
+      <c r="O16">
+        <v>0.5012204929723481</v>
+      </c>
+      <c r="P16">
+        <v>0.4011722455404317</v>
+      </c>
+      <c r="Q16">
+        <v>2.7737021870465</v>
+      </c>
+      <c r="R16">
+        <v>11.094808748186</v>
+      </c>
+      <c r="S16">
+        <v>0.04279815544018436</v>
+      </c>
+      <c r="T16">
+        <v>0.02350587059994619</v>
       </c>
     </row>
   </sheetData>
